--- a/6. Test/AS_TE_SystemTest.xlsx
+++ b/6. Test/AS_TE_SystemTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="259">
   <si>
     <t>TC ID</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Câu hỏi được chuyển vào danh sách hiện tại. Hiển thị thông báo Đưa câu hỏi vào bộ từ điển thành công</t>
-  </si>
-  <si>
-    <t>File cấu hình tập trung và phân tán</t>
   </si>
   <si>
     <t>Các trạng thái trong bộ từ điển</t>
@@ -661,9 +658,6 @@
     <t>SYS.ST.35</t>
   </si>
   <si>
-    <t>SYS.ST.36</t>
-  </si>
-  <si>
     <t>Tạo câu hỏi trên công cụ hiển thị bộ từ điển</t>
   </si>
   <si>
@@ -752,9 +746,6 @@
     <t xml:space="preserve"> Câu hỏi vừa đăng được cập nhật trên trang hiển thị</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>1. Mở bộ từ điển
 2. Chọn từng danh sách : có sẵn,đã đăng,đã hạ,đã xóa</t>
   </si>
@@ -959,7 +950,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1364,11 +1355,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1396,23 +1402,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1923,7 +1914,7 @@
   <sheetData>
     <row r="3" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1932,13 +1923,13 @@
     </row>
     <row r="4" spans="2:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1965,11 +1956,11 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -1982,7 +1973,7 @@
     </row>
     <row r="10" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1991,13 +1982,13 @@
     </row>
     <row r="11" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2032,7 +2023,7 @@
     </row>
     <row r="16" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2041,32 +2032,32 @@
     </row>
     <row r="17" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
-      <c r="C18" s="48">
+      <c r="C18" s="38">
         <v>1</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2076,36 +2067,36 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42">
-        <v>1.2</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47">
-        <v>1.3</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>236</v>
+      <c r="F21" s="35" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2119,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:F79"/>
+  <dimension ref="A7:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,275 +2148,275 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="E20" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>6</v>
@@ -2443,7 +2434,7 @@
     </row>
     <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -2461,25 +2452,25 @@
     </row>
     <row r="25" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>191</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>193</v>
       </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>18</v>
@@ -2488,52 +2479,52 @@
         <v>15</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>200</v>
-      </c>
       <c r="E28" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>21</v>
@@ -2551,7 +2542,7 @@
     </row>
     <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
@@ -2569,10 +2560,10 @@
     </row>
     <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>26</v>
@@ -2587,7 +2578,7 @@
     </row>
     <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>29</v>
@@ -2596,693 +2587,673 @@
         <v>26</v>
       </c>
       <c r="D32" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E35" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="29" t="s">
+      <c r="B36" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="C36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B37" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="C37" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="D38" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" s="25"/>
+      <c r="B39" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>99</v>
-      </c>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="17" t="s">
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="17" t="s">
-        <v>110</v>
-      </c>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
         <v>111</v>
       </c>
       <c r="E44" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="17" t="s">
+      <c r="E51" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="30"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="30"/>
-    </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="24" t="s">
+      <c r="D52" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="31"/>
-    </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="24" t="s">
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="31"/>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="31"/>
-    </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="24" t="s">
-        <v>110</v>
-      </c>
+      <c r="F53" s="30"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="24" t="s">
         <v>111</v>
       </c>
       <c r="E54" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F54" s="31"/>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="24" t="s">
+      <c r="E61" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F55" s="31"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="31"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="31"/>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" s="31"/>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="31"/>
-    </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="D62" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="17" t="s">
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="30"/>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="30"/>
-    </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" s="30"/>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="17" t="s">
-        <v>110</v>
-      </c>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="17" t="s">
         <v>111</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="30"/>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="29"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="30"/>
+      <c r="D65" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="18"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="17" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E66" s="18"/>
-      <c r="F66" s="30"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D67" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
+      <c r="E67" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="17" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" s="30"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B70" s="35" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="30"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="31"/>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="E71" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F71" s="31"/>
+        <v>130</v>
+      </c>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="25"/>
       <c r="D72" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" s="31"/>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="25"/>
+        <v>106</v>
+      </c>
+      <c r="F72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="D73" s="24" t="s">
         <v>132</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="31"/>
+        <v>101</v>
+      </c>
+      <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="24" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="31"/>
-    </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="24" t="s">
-        <v>134</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F74" s="30"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="24" t="s">
         <v>135</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F75" s="31"/>
+        <v>130</v>
+      </c>
+      <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="25"/>
       <c r="D76" s="24" t="s">
         <v>136</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F76" s="31"/>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="25"/>
+        <v>106</v>
+      </c>
+      <c r="F76" s="30"/>
+    </row>
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="D77" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="31"/>
+        <v>138</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="24" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E78" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="F78" s="31"/>
-    </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="24" t="s">
+      <c r="E78" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F79" s="31"/>
+      <c r="F78" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="B59:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3294,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3329,192 +3300,192 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="A8" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="C10" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>80</v>
-      </c>
       <c r="C12" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>87</v>
-      </c>
       <c r="C14" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>95</v>
-      </c>
       <c r="C16" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>247</v>
+      <c r="A18" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>8</v>
@@ -3526,13 +3497,13 @@
     </row>
     <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
@@ -3543,86 +3514,86 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>249</v>
+      <c r="A20" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>251</v>
+      <c r="A22" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>200</v>
-      </c>
       <c r="E23" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>253</v>
+      <c r="A24" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>8</v>
@@ -3634,13 +3605,13 @@
     </row>
     <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>24</v>
@@ -3652,13 +3623,13 @@
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>27</v>
@@ -3670,581 +3641,581 @@
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F28" s="18"/>
+        <v>254</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>99</v>
+      <c r="A29" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>98</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E29" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="E30" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="30"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="30"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="30"/>
+        <v>101</v>
+      </c>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="E33" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="30"/>
+        <v>104</v>
+      </c>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="18"/>
       <c r="D34" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="17" t="s">
+      <c r="D36" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>116</v>
-      </c>
       <c r="E36" s="18"/>
-      <c r="F36" s="30"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="18"/>
       <c r="D37" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="E38" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="B39" s="35" t="s">
+      <c r="C39" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="31"/>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="D40" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="31"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="25"/>
       <c r="D41" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="31"/>
+        <v>101</v>
+      </c>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="E43" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="31"/>
+        <v>104</v>
+      </c>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="25"/>
       <c r="D44" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="31"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="24" t="s">
+      <c r="D45" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>114</v>
-      </c>
       <c r="E45" s="25"/>
-      <c r="F45" s="31"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="31"/>
-    </row>
-    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="24" t="s">
+      <c r="E47" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="24" t="s">
+      <c r="E48" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F48" s="31"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>128</v>
-      </c>
       <c r="C49" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="E49" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="30"/>
+        <v>101</v>
+      </c>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="30"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="18"/>
       <c r="D51" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="30"/>
-    </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="30"/>
+        <v>101</v>
+      </c>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="E53" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="30"/>
+        <v>104</v>
+      </c>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="18"/>
       <c r="D54" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="29"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="30"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="E55" s="18"/>
-      <c r="F55" s="30"/>
+      <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="30"/>
-    </row>
-    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="17" t="s">
+      <c r="E57" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="30"/>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>126</v>
-      </c>
       <c r="E58" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58" s="30"/>
+        <v>119</v>
+      </c>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>129</v>
+      <c r="A59" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="C59" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D59" s="24" t="s">
-        <v>233</v>
-      </c>
       <c r="E59" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="31"/>
+        <v>101</v>
+      </c>
+      <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="31"/>
+      <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="25"/>
       <c r="D61" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" s="31"/>
+      <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="25"/>
       <c r="D62" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="31"/>
+        <v>106</v>
+      </c>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" s="31"/>
+        <v>101</v>
+      </c>
+      <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="24" t="s">
-        <v>135</v>
-      </c>
       <c r="E64" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="31"/>
+        <v>104</v>
+      </c>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="25"/>
       <c r="D65" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F65" s="31"/>
+        <v>130</v>
+      </c>
+      <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="25"/>
       <c r="D66" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="31"/>
-    </row>
-    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="24" t="s">
+      <c r="D67" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="E67" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="F67" s="30"/>
+    </row>
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="31"/>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="24" t="s">
+      <c r="E68" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F68" s="31"/>
+      <c r="F68" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/6. Test/AS_TE_SystemTest.xlsx
+++ b/6. Test/AS_TE_SystemTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="313">
   <si>
     <t>TC ID</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Hiển thị chi tiết câu hỏi kèm theo công cụ biên soạn câu trả lời</t>
   </si>
   <si>
-    <t>Dùng trình Firefox</t>
-  </si>
-  <si>
     <t>4. Mở link http://10.11.27.11:8080/congcuquantritudien/</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
     <t>5. Đăng nhập</t>
   </si>
   <si>
-    <t>6. Chọn câu hỏi từ danh sách chưa trả lời</t>
-  </si>
-  <si>
     <t>Tài khoản user2</t>
   </si>
   <si>
@@ -448,24 +442,6 @@
   </si>
   <si>
     <t>Tài khoản user1</t>
-  </si>
-  <si>
-    <t>8. Biên soạn câu trả lời</t>
-  </si>
-  <si>
-    <t>9. Chọn Gửi</t>
-  </si>
-  <si>
-    <t>Câu trả lời được lưu vào cơ sở dữ liệu.
-Câu trả lời được gửi đến người đặt câu hỏi.
-Câu hỏi được chuyển vào danh sách đã trả lời
-Hiển thị thông báo gửi thành công</t>
-  </si>
-  <si>
-    <t>10. Chọn Gửi</t>
-  </si>
-  <si>
-    <t>Hiển thi thông báo câu hỏi đã được trả lời</t>
   </si>
   <si>
     <t>Xử lí song song hai tài khoản quyền user - admin cùng thực hiện lưu câu hỏi</t>
@@ -479,18 +455,8 @@
     <t>Tài khoản admin1</t>
   </si>
   <si>
-    <t>9. Chọn Lưu</t>
-  </si>
-  <si>
     <t>Câu trả lời được lưu vào cơ sở dữ liệu.
 Câu hỏi được chuyển vào danh sách lưu tạm.
-Hiển thị thông báo lưu thành công</t>
-  </si>
-  <si>
-    <t>10. Chọn Lưu</t>
-  </si>
-  <si>
-    <t>Câu trả lời được lưu vào cơ sở dữ liệu.
 Hiển thị thông báo lưu thành công</t>
   </si>
   <si>
@@ -682,16 +648,6 @@
   </si>
   <si>
     <t>Hiển thị thông báo tạo index thành công</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách câu hỏi chưa trả lời
-2. Chọn câu hỏi cần trả lời
-3. Biên soạn câu trả lời
-4. Xác nhận gởi
-5. Nhập từ khóa tìm kiếm liên quan tới câu hỏi vừa gửi trong danh sách câu hỏi chưa trả lời</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Không có kết quả nào được trả ra</t>
   </si>
   <si>
     <t>Pre-conditions: Người dùng đã đăng nhập vào trang web. 
@@ -943,6 +899,229 @@
   </si>
   <si>
     <t>SYS.ST-A.25</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo câu hỏi đang được trả lời bởi user 1.</t>
+  </si>
+  <si>
+    <t>8. Chọn Gửi</t>
+  </si>
+  <si>
+    <t>Câu trả lời được lưu vào cơ sở dữ liệu.
+Câu trả lời được gửi đến người đặt câu hỏi.
+Câu hỏi được chuyển vào danh sách đã trả lời
+Hiển thị thông báo gửi thành công.</t>
+  </si>
+  <si>
+    <t>10. Chọn Danh sách đã trả lời</t>
+  </si>
+  <si>
+    <t>Không tìm thấy câu hỏi 1</t>
+  </si>
+  <si>
+    <t>3. Chọn câu hỏi 1 từ danh sách chưa trả lời</t>
+  </si>
+  <si>
+    <t>6. Chọn câu hỏi 1 từ danh sách chưa trả lời</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo câu hỏi đang được trả lời bởi admin1.</t>
+  </si>
+  <si>
+    <t>8. Chọn Lưu</t>
+  </si>
+  <si>
+    <t>Câu trả lời được lưu vào cơ sở dữ liệu.
+Câu trả lời được lưu vào danh sách đã lưu.
+Hiển thị thông báo lưu thành công</t>
+  </si>
+  <si>
+    <t>9. Chọn Danh sách lưu tạm
+10. Tìm câu hỏi #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tài khoản: admin1
+Mật khẩu: 123456
+Quyền: admin (1)</t>
+  </si>
+  <si>
+    <t>Tài khoản: user2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hiển thị thông báo câu hỏi đang được trả lời bởi user2.</t>
+  </si>
+  <si>
+    <t>11. Biên soạn câu trả lời.
+12. Chọn Lưu</t>
+  </si>
+  <si>
+    <t>13. Chọn Danh sách lưu tạm
+14. Tìm câu hỏi #1</t>
+  </si>
+  <si>
+    <t>4. Chọn câu hỏi 1 từ danh sách có sẵn</t>
+  </si>
+  <si>
+    <t>8. Chọn câu hỏi 1 từ danh sách có sẵn</t>
+  </si>
+  <si>
+    <t>Tài khoản: admin1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tài khoản: admin1
+</t>
+  </si>
+  <si>
+    <t>10. Chọn Danh sách đã đăng.
+11. Tìm câu hỏi 1</t>
+  </si>
+  <si>
+    <t>Trả ra câu hỏi 1 cần tìm</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng được phân quyền</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng "chỉnh sửa".</t>
+  </si>
+  <si>
+    <t>5. Chọn câu hỏi 1 từ danh sách đã đăng</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết câu hỏi</t>
+  </si>
+  <si>
+    <t>6. Chọn câu hỏi 1 từ danh sách đã hạ</t>
+  </si>
+  <si>
+    <t>7. Chọn câu hỏi 1 từ danh sách đã xóa</t>
+  </si>
+  <si>
+    <t>SYS.ST-A.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xử lí phân quyền user</t>
+  </si>
+  <si>
+    <t>SYS.ST-A.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xử lí phân quyền admin</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng "chỉnh sửa" ,"xóa","đăng".</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng  "hạ câu hỏi"</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng "chỉnh sửa","đăng","xóa"</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết câu hỏi kèm theo chức năng "khôi phục"</t>
+  </si>
+  <si>
+    <t>Đăng nhập ứng dụng quản trị bộ từ điển</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chọn danh sách đã trả lời
+2. Chọn câu hỏi.
+3. Đưa câu hỏi vào bộ từ điển
+4.Chọn bộ từ điển
+5. Chọn danh sách có sẵn
+6. Chọn câu hỏi.
+7. Đăng câu hỏi.
+8. Mở công cụ hiển thị.
+9. Tìm câu hỏi vừa đăng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Câu hỏi được trả ra</t>
+  </si>
+  <si>
+    <t>Mở link http://10.11.27.11:8080/congcuquantritudien/</t>
+  </si>
+  <si>
+    <t>SYS.ST.36</t>
+  </si>
+  <si>
+    <t>SYS.ST.37</t>
+  </si>
+  <si>
+    <t>SYS.ST.38</t>
+  </si>
+  <si>
+    <t>3. Chọn cấu hình</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện cấu hình.
+Mặc định mở trang cấu hình người dùng.</t>
+  </si>
+  <si>
+    <t>4. Copy đường dẫn</t>
+  </si>
+  <si>
+    <t>5. Paste đường dẫn vừa copy</t>
+  </si>
+  <si>
+    <t>Xử lí kiểm tra truy cập hệ thống</t>
+  </si>
+  <si>
+    <t>SYS.ST.39</t>
+  </si>
+  <si>
+    <t>Xử lí kiểm tra truy cập hệ thống với tài khoản user</t>
+  </si>
+  <si>
+    <t>4. Copy đường dẫn cấu hình</t>
+  </si>
+  <si>
+    <t>Dùng trình duyệt Firefox</t>
+  </si>
+  <si>
+    <t>5. Paste đường dẫn vừa copy vào trình duyệt firefox</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi</t>
+  </si>
+  <si>
+    <t>SYS.ST.40</t>
+  </si>
+  <si>
+    <t>Xử lí kiểm tra truy cập hệ thống với tài khoản admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị giao diện cấu hình.
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra kết nối mạng</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện danh sách câu hỏi</t>
+  </si>
+  <si>
+    <t>1.Mở app công cụ quản trị</t>
+  </si>
+  <si>
+    <t>2.Ngắt kết nối mạng trên android device #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hiển thị thông báo mất kết nối mạng. Xuất hiện cửa sổ "để sau" và "lập tức".</t>
+  </si>
+  <si>
+    <t>3.Chọn "để sau"</t>
+  </si>
+  <si>
+    <t>4.Chọn "lập tức"</t>
+  </si>
+  <si>
+    <t>Mở trang setting mạng cho android device #1</t>
+  </si>
+  <si>
+    <t>SYS.ST-A.28</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1375,6 +1554,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1402,8 +1584,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,11 +1634,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66116</xdr:colOff>
+      <xdr:colOff>308908</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8653074" cy="937629"/>
+    <xdr:ext cx="8167493" cy="937629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 1"/>
@@ -1439,8 +1646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3685616" y="0"/>
-          <a:ext cx="8653074" cy="937629"/>
+          <a:off x="3928408" y="0"/>
+          <a:ext cx="8167493" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,7 +1697,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t> System -All sprints</a:t>
+            <a:t> System -Website</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
             <a:ln w="6600">
@@ -1520,12 +1727,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1084463</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8653074" cy="937629"/>
+    <xdr:ext cx="11475257" cy="937629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 1"/>
@@ -1533,8 +1740,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810000" y="19050"/>
-          <a:ext cx="8653074" cy="937629"/>
+          <a:off x="1084463" y="38100"/>
+          <a:ext cx="11475257" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1584,7 +1791,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t> System -All sprints</a:t>
+            <a:t> System -Android application</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
             <a:ln w="6600">
@@ -1956,11 +2163,11 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -2054,10 +2261,10 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="9" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2067,10 +2274,10 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="9" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2080,10 +2287,10 @@
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="34" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2093,10 +2300,10 @@
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2110,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:F78"/>
+  <dimension ref="A7:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,10 +2355,10 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="4" t="s">
@@ -2163,8 +2370,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>146</v>
+      <c r="A9" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>58</v>
@@ -2182,7 +2389,7 @@
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>62</v>
@@ -2199,8 +2406,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>148</v>
+      <c r="A11" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>66</v>
@@ -2218,7 +2425,7 @@
     </row>
     <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>20</v>
@@ -2235,8 +2442,8 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>150</v>
+      <c r="A13" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>72</v>
@@ -2254,7 +2461,7 @@
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>76</v>
@@ -2271,8 +2478,8 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>152</v>
+      <c r="A15" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>79</v>
@@ -2290,7 +2497,7 @@
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>14</v>
@@ -2307,8 +2514,8 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>154</v>
+      <c r="A17" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>86</v>
@@ -2326,7 +2533,7 @@
     </row>
     <row r="18" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>90</v>
@@ -2343,8 +2550,8 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>156</v>
+      <c r="A19" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>94</v>
@@ -2362,43 +2569,43 @@
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>158</v>
+      <c r="A21" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>17</v>
@@ -2407,16 +2614,16 @@
         <v>63</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>160</v>
+      <c r="A23" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>6</v>
@@ -2434,7 +2641,7 @@
     </row>
     <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -2451,26 +2658,26 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>162</v>
+      <c r="A25" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>18</v>
@@ -2479,52 +2686,52 @@
         <v>15</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>164</v>
+      <c r="A27" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>166</v>
+      <c r="A29" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>21</v>
@@ -2542,7 +2749,7 @@
     </row>
     <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
@@ -2559,11 +2766,11 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>168</v>
+      <c r="A31" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>26</v>
@@ -2578,7 +2785,7 @@
     </row>
     <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>29</v>
@@ -2587,16 +2794,16 @@
         <v>26</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>30</v>
@@ -2614,7 +2821,7 @@
     </row>
     <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>34</v>
@@ -2631,8 +2838,8 @@
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>172</v>
+      <c r="A35" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>38</v>
@@ -2641,72 +2848,72 @@
         <v>26</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>174</v>
+      <c r="A37" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="46" t="s">
         <v>98</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -2721,8 +2928,8 @@
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="17" t="s">
         <v>102</v>
       </c>
@@ -2735,11 +2942,11 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>106</v>
@@ -2747,13 +2954,13 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>101</v>
@@ -2761,13 +2968,13 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>104</v>
@@ -2775,73 +2982,71 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="18"/>
       <c r="D47" s="17" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="F47" s="29"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>119</v>
+        <v>250</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>120</v>
+      <c r="A49" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>113</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>99</v>
@@ -2855,10 +3060,10 @@
       <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>103</v>
@@ -2869,11 +3074,11 @@
       <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="25"/>
       <c r="D51" s="24" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>106</v>
@@ -2881,13 +3086,13 @@
       <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>101</v>
@@ -2895,13 +3100,13 @@
       <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>104</v>
@@ -2909,75 +3114,73 @@
       <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="25"/>
       <c r="D54" s="24" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="24" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>127</v>
+      <c r="A59" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>117</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>99</v>
@@ -2991,10 +3194,10 @@
       <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="17" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>103</v>
@@ -3005,8 +3208,8 @@
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="18"/>
       <c r="D61" s="17" t="s">
         <v>105</v>
@@ -3017,216 +3220,214 @@
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>101</v>
       </c>
       <c r="F62" s="29"/>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>104</v>
       </c>
       <c r="F63" s="29"/>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="18"/>
       <c r="D64" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F64" s="29"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F64" s="29"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="29"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66" s="18" t="s">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="17" t="s">
-        <v>122</v>
-      </c>
       <c r="D67" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>124</v>
+        <v>257</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="F67" s="29"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="47"/>
-      <c r="C68" s="17" t="s">
-        <v>112</v>
-      </c>
+      <c r="C68" s="17"/>
       <c r="D68" s="17" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F68" s="29"/>
     </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="24" t="s">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F69" s="29"/>
+    </row>
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D70" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E70" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F69" s="30"/>
-    </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="24" t="s">
+      <c r="F70" s="30"/>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E71" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="30"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>130</v>
-      </c>
       <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="25"/>
       <c r="D72" s="24" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E72" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="30"/>
-    </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" s="24" t="s">
+      <c r="F73" s="30"/>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="30"/>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="24" t="s">
+      <c r="F74" s="30"/>
+    </row>
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F74" s="30"/>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>130</v>
-      </c>
       <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="25"/>
       <c r="D76" s="24" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E76" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="30"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="F76" s="30"/>
-    </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>139</v>
       </c>
       <c r="F77" s="30"/>
     </row>
@@ -3234,26 +3435,498 @@
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="24" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>141</v>
+        <v>128</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F78" s="30"/>
     </row>
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="30"/>
+    </row>
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="49"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="49"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="49"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="49"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F84" s="29"/>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F85" s="29"/>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="49"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B87" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" s="51"/>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="50"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88" s="51"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="50"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="51"/>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="50"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F90" s="51"/>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="50"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F91" s="51"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="50"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F92" s="51"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="50"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F93" s="51"/>
+    </row>
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F94" s="29"/>
+    </row>
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="29"/>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F96" s="29"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E97" s="17"/>
+      <c r="F97" s="29"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" s="29"/>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="30"/>
+    </row>
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F100" s="30"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="44"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F101" s="30"/>
+    </row>
+    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="44"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" s="30"/>
+    </row>
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="44"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F103" s="30"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="44"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="30"/>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="F105" s="30"/>
+    </row>
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" s="29"/>
+    </row>
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F107" s="29"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F108" s="29"/>
+    </row>
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" s="29"/>
+    </row>
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F110" s="29"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E111" s="17"/>
+      <c r="F111" s="29"/>
+    </row>
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="48"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F112" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B69:B78"/>
+  <mergeCells count="18">
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
     <mergeCell ref="A39:A48"/>
     <mergeCell ref="B39:B48"/>
     <mergeCell ref="A49:A58"/>
     <mergeCell ref="B49:B58"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="B59:B69"/>
+    <mergeCell ref="A59:A69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3263,20 +3936,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:F68"/>
+  <dimension ref="A7:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="34" style="52" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -3301,29 +3975,29 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>70</v>
@@ -3335,13 +4009,13 @@
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>74</v>
@@ -3353,13 +4027,13 @@
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>77</v>
@@ -3371,13 +4045,13 @@
     </row>
     <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>81</v>
@@ -3389,13 +4063,13 @@
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>84</v>
@@ -3407,13 +4081,13 @@
     </row>
     <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>88</v>
@@ -3425,13 +4099,13 @@
     </row>
     <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>92</v>
@@ -3443,13 +4117,13 @@
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>96</v>
@@ -3461,31 +4135,31 @@
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>8</v>
@@ -3497,13 +4171,13 @@
     </row>
     <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
@@ -3515,85 +4189,85 @@
     </row>
     <row r="20" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>8</v>
@@ -3605,13 +4279,13 @@
     </row>
     <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>24</v>
@@ -3622,14 +4296,14 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>252</v>
+      <c r="A26" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>27</v>
@@ -3641,594 +4315,847 @@
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="51"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="48"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B29" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E29" s="17" t="s">
+      <c r="E47" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="F49" s="51"/>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="F50" s="51"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="17" t="s">
+      <c r="F51" s="51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="17" t="s">
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="E53" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F54" s="51"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="D55" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="39"/>
+      <c r="F55" s="51"/>
+    </row>
+    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="51"/>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="51"/>
+    </row>
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="51"/>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F59" s="51"/>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="29"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="29"/>
-    </row>
-    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="18" t="s">
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="B39" s="42" t="s">
+      <c r="E62" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" s="24" t="s">
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="24" t="s">
+      <c r="F64" s="29"/>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="29"/>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F69" s="29"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="51"/>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E71" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42" s="24" t="s">
+      <c r="F71" s="51"/>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="51"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F73" s="51"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="50"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F74" s="51"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F75" s="51"/>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F76" s="51"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="24" t="s">
+      <c r="F77" s="29"/>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="49"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="30"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="30"/>
-    </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="29"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="29"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="29"/>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="29"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="29"/>
-    </row>
-    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="29"/>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="18" t="s">
+      <c r="F78" s="29"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="49"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="30"/>
-    </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" s="30"/>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" s="30"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" s="30"/>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F64" s="30"/>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F65" s="30"/>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F66" s="30"/>
-    </row>
-    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F68" s="30"/>
+      <c r="E79" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="49"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="49"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="49"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="49"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F84" s="51"/>
+    </row>
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="57"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="F85" s="51"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="57"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F86" s="51"/>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="58"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="F87" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="B59:B68"/>
+  <mergeCells count="14">
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="B60:B69"/>
     <mergeCell ref="A29:A38"/>
     <mergeCell ref="B29:B38"/>
     <mergeCell ref="A39:A48"/>
     <mergeCell ref="B39:B48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B49:B59"/>
+    <mergeCell ref="A49:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/6. Test/AS_TE_SystemTest.xlsx
+++ b/6. Test/AS_TE_SystemTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="314">
   <si>
     <t>TC ID</t>
   </si>
@@ -216,10 +216,6 @@
   </si>
   <si>
     <t>Đang nhập ứng dụng quản trị bộ từ điển</t>
-  </si>
-  <si>
-    <t>1. Mở trang web
-2. Đăng nhập với tài khoản đã tồn tại trong cơ sở dữ liệu</t>
   </si>
   <si>
     <t>Hiển thị ứng dụng</t>
@@ -510,9 +506,6 @@
     <t>Hiển thị thông báo câu hỏi đã được đăng</t>
   </si>
   <si>
-    <t>SYS.ST.01</t>
-  </si>
-  <si>
     <t>Tạo câu hỏi trên công cụ quản trị bộ từ điển</t>
   </si>
   <si>
@@ -1021,9 +1014,6 @@
   </si>
   <si>
     <t>Hiển thị chi tiết câu hỏi kèm theo chức năng "khôi phục"</t>
-  </si>
-  <si>
-    <t>Đăng nhập ứng dụng quản trị bộ từ điển</t>
   </si>
   <si>
     <t xml:space="preserve">1. Chọn danh sách đã trả lời
@@ -1123,6 +1113,18 @@
   <si>
     <t>SYS.ST-A.28</t>
   </si>
+  <si>
+    <t>Project: Admission system - DeadlineTeam - GV hướng dẫn: GV Bùi Minh Phụng</t>
+  </si>
+  <si>
+    <t>Project Test lead: Nguyễn Phan Xuân Huy</t>
+  </si>
+  <si>
+    <t>System test (website)</t>
+  </si>
+  <si>
+    <t>System test (android)</t>
+  </si>
 </sst>
 </file>
 
@@ -1131,7 +1133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1187,6 +1189,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1450,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1548,7 +1563,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1557,43 +1571,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1603,13 +1626,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1633,21 +1657,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>308908</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1113953</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140785</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8167493" cy="937629"/>
+    <xdr:ext cx="184731" cy="937629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3928408" y="0"/>
-          <a:ext cx="8167493" cy="937629"/>
+          <a:off x="9029228" y="540835"/>
+          <a:ext cx="184731" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1661,138 +1685,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Admission</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0" baseline="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> System -Website</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-            <a:ln w="6600">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent2"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1084463</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="11475257" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1084463" y="38100"/>
-          <a:ext cx="11475257" cy="937629"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Admission</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0" baseline="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> System -Android application</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
             <a:ln w="6600">
               <a:solidFill>
@@ -2107,7 +1999,7 @@
   <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,11 +2055,11 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -2256,15 +2148,15 @@
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
-      <c r="C18" s="38">
+      <c r="C18" s="37">
         <v>1</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2274,10 +2166,10 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2287,23 +2179,23 @@
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F21" s="58" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="37">
-        <v>1.3</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2317,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:F112"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E8:E9"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,297 +2225,331 @@
     <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="E20" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>173</v>
       </c>
       <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>176</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>6</v>
@@ -2641,7 +2567,7 @@
     </row>
     <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -2659,25 +2585,25 @@
     </row>
     <row r="25" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>179</v>
-      </c>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>18</v>
@@ -2686,52 +2612,52 @@
         <v>15</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>186</v>
-      </c>
       <c r="E28" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>21</v>
@@ -2749,7 +2675,7 @@
     </row>
     <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
@@ -2767,10 +2693,10 @@
     </row>
     <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>26</v>
@@ -2785,7 +2711,7 @@
     </row>
     <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>29</v>
@@ -2794,16 +2720,16 @@
         <v>26</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>30</v>
@@ -2821,7 +2747,7 @@
     </row>
     <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>34</v>
@@ -2839,7 +2765,7 @@
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>38</v>
@@ -2848,1085 +2774,1086 @@
         <v>26</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="E37" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="D39" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="E39" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="29"/>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="E40" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E41" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="E42" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="17" t="s">
+      <c r="D43" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="E43" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="18"/>
       <c r="D47" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>251</v>
-      </c>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="24" t="s">
-        <v>114</v>
-      </c>
       <c r="D50" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="25"/>
       <c r="D51" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E51" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F51" s="30"/>
-    </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D52" s="24" t="s">
+      <c r="E52" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="30"/>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="24" t="s">
+      <c r="D53" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="E53" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="25"/>
       <c r="D54" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="F57" s="30"/>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>257</v>
-      </c>
       <c r="E58" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>117</v>
+      <c r="A59" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="C59" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="E59" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>101</v>
-      </c>
       <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="18"/>
       <c r="D61" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="29"/>
-    </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>107</v>
-      </c>
       <c r="E62" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="18"/>
       <c r="D64" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>257</v>
-      </c>
       <c r="E67" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" s="43" t="s">
-        <v>118</v>
+      <c r="A70" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>117</v>
       </c>
       <c r="C70" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="E70" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="24" t="s">
-        <v>101</v>
-      </c>
       <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="25"/>
       <c r="D72" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E72" s="24" t="s">
-        <v>120</v>
-      </c>
       <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="25"/>
       <c r="D73" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="30"/>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F73" s="30"/>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" s="24" t="s">
+      <c r="E74" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="30"/>
+    </row>
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F74" s="30"/>
-    </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="24" t="s">
+      <c r="D75" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="24" t="s">
-        <v>124</v>
-      </c>
       <c r="E75" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="25"/>
       <c r="D76" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="25"/>
       <c r="D77" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="30"/>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E77" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F77" s="30"/>
-    </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="24" t="s">
+      <c r="D78" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="E78" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="25" t="s">
+      <c r="F78" s="30"/>
+    </row>
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="49"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F78" s="30"/>
-    </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" s="24" t="s">
+      <c r="E79" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="24" t="s">
-        <v>131</v>
-      </c>
       <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="B80" s="49" t="s">
-        <v>276</v>
+      <c r="A80" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="50" t="s">
+        <v>274</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
+      <c r="A82" s="50"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="29"/>
       <c r="D82" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E82" s="17" t="s">
-        <v>120</v>
-      </c>
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="50"/>
       <c r="C84" s="29"/>
       <c r="D84" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="29"/>
       <c r="D85" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="29"/>
       <c r="D86" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E86" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" s="39"/>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88" s="39"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="39"/>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="51"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F90" s="39"/>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F91" s="39"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F92" s="39"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="F86" s="29"/>
-    </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="B87" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="C87" s="16" t="s">
+      <c r="E93" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F93" s="39"/>
+    </row>
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F87" s="51"/>
-    </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="16" t="s">
+      <c r="E94" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" s="29"/>
+    </row>
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E88" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F88" s="51"/>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="51"/>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="F90" s="51"/>
-    </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F91" s="51"/>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="50"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F92" s="51"/>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="F93" s="51"/>
-    </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="B94" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F94" s="29"/>
-    </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F95" s="29"/>
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="18"/>
       <c r="D96" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F96" s="29"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="18"/>
       <c r="D97" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="29"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D98" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F98" s="29"/>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F98" s="29"/>
-    </row>
-    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="B99" s="43" t="s">
-        <v>296</v>
-      </c>
       <c r="C99" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="E99" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E99" s="24" t="s">
-        <v>101</v>
-      </c>
       <c r="F99" s="30"/>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
+      <c r="A100" s="48"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E100" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
-      <c r="B101" s="44"/>
+      <c r="A101" s="48"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="25"/>
       <c r="D101" s="24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F101" s="30"/>
     </row>
     <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="48"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D102" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="30"/>
+    </row>
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="48"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E102" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F102" s="30"/>
-    </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="D103" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E103" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="44"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="48"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
+      <c r="A105" s="49"/>
+      <c r="B105" s="49"/>
       <c r="C105" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D105" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="F105" s="30"/>
+    </row>
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="E105" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="F105" s="30"/>
-    </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B106" s="46" t="s">
-        <v>302</v>
-      </c>
       <c r="C106" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="E106" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E106" s="17" t="s">
-        <v>101</v>
-      </c>
       <c r="F106" s="29"/>
     </row>
     <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
       <c r="C107" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E107" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="18"/>
       <c r="D108" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
       <c r="C109" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
       <c r="C110" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D110" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E110" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F110" s="29"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
-      <c r="B112" s="48"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F112" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B59:B69"/>
+    <mergeCell ref="A59:A69"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
     <mergeCell ref="B94:B98"/>
     <mergeCell ref="A94:A98"/>
     <mergeCell ref="A99:A105"/>
     <mergeCell ref="B99:B105"/>
     <mergeCell ref="A106:A112"/>
     <mergeCell ref="B106:B112"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="B80:B86"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="B59:B69"/>
-    <mergeCell ref="A59:A69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3936,10 +3863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:F87"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,12 +3874,66 @@
     <col min="1" max="1" width="21.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="52" customWidth="1"/>
-    <col min="5" max="5" width="34" style="52" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="34" style="40" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="6" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+    </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
@@ -3975,191 +3956,191 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>173</v>
       </c>
       <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>8</v>
@@ -4171,13 +4152,13 @@
     </row>
     <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
@@ -4189,85 +4170,85 @@
     </row>
     <row r="20" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>186</v>
-      </c>
       <c r="E23" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>8</v>
@@ -4279,13 +4260,13 @@
     </row>
     <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>24</v>
@@ -4297,13 +4278,13 @@
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>27</v>
@@ -4315,836 +4296,831 @@
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>216</v>
-      </c>
       <c r="E29" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="51"/>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="51"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="51"/>
+        <v>105</v>
+      </c>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D32" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+    </row>
+    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="51"/>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="51"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="F34" s="51"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="51"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="51"/>
-    </row>
-    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="F37" s="51"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="51"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="B39" s="46" t="s">
+      <c r="E39" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="29"/>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="17" t="s">
-        <v>114</v>
-      </c>
       <c r="D40" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="18"/>
       <c r="D41" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="E43" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E48" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="39"/>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="39"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="39"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="39"/>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="17" t="s">
+      <c r="D53" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="39"/>
+    </row>
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F54" s="39"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F48" s="29"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="51"/>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="51"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="51"/>
-    </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="51"/>
-    </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="F54" s="51"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="51"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="39"/>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="51"/>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>257</v>
-      </c>
       <c r="E57" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="51"/>
+        <v>105</v>
+      </c>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="F58" s="51"/>
+        <v>259</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="F59" s="51"/>
+        <v>260</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F59" s="39"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>118</v>
+      <c r="A60" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>117</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>120</v>
-      </c>
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>124</v>
-      </c>
       <c r="E65" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="F67" s="29"/>
-    </row>
-    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="17" t="s">
+      <c r="D69" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" s="29"/>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="17" t="s">
+      <c r="E69" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="E69" s="17" t="s">
+      <c r="F69" s="29"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="39"/>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="39"/>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="39"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="51"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
+      <c r="F73" s="39"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F74" s="39"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F75" s="39"/>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F76" s="39"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B77" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" s="51"/>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="16" t="s">
+      <c r="C77" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" s="29"/>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F71" s="51"/>
-    </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72" s="51"/>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="F73" s="51"/>
-    </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="F74" s="51"/>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="F75" s="51"/>
-    </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="F76" s="51"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="B77" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F77" s="29"/>
-    </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
       <c r="C79" s="29"/>
       <c r="D79" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E79" s="17" t="s">
-        <v>120</v>
-      </c>
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
       <c r="C80" s="29"/>
       <c r="D80" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="29"/>
       <c r="D81" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
+      <c r="A82" s="50"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="29"/>
       <c r="D82" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="B84" s="50" t="s">
+      <c r="A84" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F84" s="39"/>
+    </row>
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="53"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="C84" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D84" s="16" t="s">
+      <c r="E85" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="F85" s="39"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="53"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="E84" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F84" s="51"/>
-    </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="39" t="s">
+      <c r="E86" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F86" s="39"/>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="54"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E87" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="F85" s="51"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F86" s="51"/>
-    </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="E87" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="F87" s="51"/>
+      <c r="F87" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:F3"/>
     <mergeCell ref="A60:A69"/>
     <mergeCell ref="B60:B69"/>
     <mergeCell ref="A29:A38"/>
@@ -5153,9 +5129,14 @@
     <mergeCell ref="B39:B48"/>
     <mergeCell ref="B49:B59"/>
     <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/6. Test/AS_TE_SystemTest.xlsx
+++ b/6. Test/AS_TE_SystemTest.xlsx
@@ -1099,15 +1099,6 @@
     <t>2.Ngắt kết nối mạng trên android device #1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hiển thị thông báo mất kết nối mạng. Xuất hiện cửa sổ "để sau" và "lập tức".</t>
-  </si>
-  <si>
-    <t>3.Chọn "để sau"</t>
-  </si>
-  <si>
-    <t>4.Chọn "lập tức"</t>
-  </si>
-  <si>
     <t>Mở trang setting mạng cho android device #1</t>
   </si>
   <si>
@@ -1124,6 +1115,15 @@
   </si>
   <si>
     <t>System test (android)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hiển thị thông báo mất kết nối mạng. Xuất hiện cửa sổ thông báo có muốn kết nối mạng "có" và "không".</t>
+  </si>
+  <si>
+    <t>3.Chọn "Không"</t>
+  </si>
+  <si>
+    <t>4.Chọn "Có"</t>
   </si>
 </sst>
 </file>
@@ -1575,57 +1575,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1633,7 +1582,58 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2055,11 +2055,11 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -2194,7 +2194,7 @@
       <c r="E21" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="41" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2226,74 +2226,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="A5" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="A6" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>151</v>
       </c>
@@ -2836,10 +2836,10 @@
       <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -2854,8 +2854,8 @@
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="17" t="s">
         <v>101</v>
       </c>
@@ -2868,8 +2868,8 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>250</v>
@@ -2880,8 +2880,8 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="17" t="s">
         <v>295</v>
       </c>
@@ -2894,8 +2894,8 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
@@ -2908,8 +2908,8 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
         <v>251</v>
@@ -2920,8 +2920,8 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="17" t="s">
         <v>109</v>
       </c>
@@ -2930,8 +2930,8 @@
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="17" t="s">
         <v>111</v>
       </c>
@@ -2942,8 +2942,8 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="18"/>
       <c r="D47" s="17" t="s">
         <v>246</v>
@@ -2954,8 +2954,8 @@
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="17" t="s">
         <v>109</v>
       </c>
@@ -2968,10 +2968,10 @@
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="51" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="24" t="s">
@@ -2986,8 +2986,8 @@
       <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="24" t="s">
         <v>113</v>
       </c>
@@ -3000,8 +3000,8 @@
       <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="25"/>
       <c r="D51" s="24" t="s">
         <v>250</v>
@@ -3012,8 +3012,8 @@
       <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="24" t="s">
         <v>295</v>
       </c>
@@ -3026,8 +3026,8 @@
       <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="24" t="s">
         <v>107</v>
       </c>
@@ -3040,8 +3040,8 @@
       <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="25"/>
       <c r="D54" s="24" t="s">
         <v>251</v>
@@ -3052,8 +3052,8 @@
       <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="24" t="s">
         <v>109</v>
       </c>
@@ -3062,8 +3062,8 @@
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="24" t="s">
         <v>114</v>
       </c>
@@ -3074,8 +3074,8 @@
       <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="24" t="s">
         <v>114</v>
       </c>
@@ -3088,8 +3088,8 @@
       <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="24" t="s">
         <v>109</v>
       </c>
@@ -3102,10 +3102,10 @@
       <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -3120,8 +3120,8 @@
       <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="17" t="s">
         <v>107</v>
       </c>
@@ -3134,8 +3134,8 @@
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="18"/>
       <c r="D61" s="17" t="s">
         <v>104</v>
@@ -3146,8 +3146,8 @@
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="17" t="s">
         <v>295</v>
       </c>
@@ -3160,8 +3160,8 @@
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="17" t="s">
         <v>256</v>
       </c>
@@ -3174,8 +3174,8 @@
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="18"/>
       <c r="D64" s="17" t="s">
         <v>251</v>
@@ -3186,8 +3186,8 @@
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="17" t="s">
         <v>109</v>
       </c>
@@ -3198,8 +3198,8 @@
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
         <v>253</v>
@@ -3210,8 +3210,8 @@
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="17" t="s">
         <v>114</v>
       </c>
@@ -3224,8 +3224,8 @@
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17" t="s">
         <v>259</v>
@@ -3236,8 +3236,8 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="17" t="s">
         <v>109</v>
       </c>
@@ -3250,10 +3250,10 @@
       <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="51" t="s">
         <v>117</v>
       </c>
       <c r="C70" s="24" t="s">
@@ -3268,8 +3268,8 @@
       <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="24" t="s">
         <v>113</v>
       </c>
@@ -3282,8 +3282,8 @@
       <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="25"/>
       <c r="D72" s="24" t="s">
         <v>118</v>
@@ -3294,8 +3294,8 @@
       <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="25"/>
       <c r="D73" s="24" t="s">
         <v>120</v>
@@ -3306,8 +3306,8 @@
       <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="48"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="24" t="s">
         <v>295</v>
       </c>
@@ -3320,8 +3320,8 @@
       <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
-      <c r="B75" s="48"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="24" t="s">
         <v>122</v>
       </c>
@@ -3334,8 +3334,8 @@
       <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="48"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="25"/>
       <c r="D76" s="24" t="s">
         <v>124</v>
@@ -3346,8 +3346,8 @@
       <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="48"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="25"/>
       <c r="D77" s="24" t="s">
         <v>125</v>
@@ -3358,8 +3358,8 @@
       <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="48"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="24" t="s">
         <v>126</v>
       </c>
@@ -3372,8 +3372,8 @@
       <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="24" t="s">
         <v>113</v>
       </c>
@@ -3386,10 +3386,10 @@
       <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="54" t="s">
         <v>274</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -3404,8 +3404,8 @@
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="18" t="s">
         <v>107</v>
       </c>
@@ -3418,8 +3418,8 @@
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="29"/>
       <c r="D82" s="17" t="s">
         <v>118</v>
@@ -3430,8 +3430,8 @@
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="50"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
         <v>261</v>
@@ -3442,8 +3442,8 @@
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="29"/>
       <c r="D84" s="17" t="s">
         <v>269</v>
@@ -3454,8 +3454,8 @@
       <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="29"/>
       <c r="D85" s="17" t="s">
         <v>271</v>
@@ -3466,8 +3466,8 @@
       <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="29"/>
       <c r="D86" s="17" t="s">
         <v>272</v>
@@ -3478,10 +3478,10 @@
       <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="55" t="s">
         <v>276</v>
       </c>
       <c r="C87" s="16" t="s">
@@ -3496,8 +3496,8 @@
       <c r="F87" s="39"/>
     </row>
     <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="38" t="s">
         <v>107</v>
       </c>
@@ -3510,8 +3510,8 @@
       <c r="F88" s="39"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="39"/>
       <c r="D89" s="16" t="s">
         <v>118</v>
@@ -3522,8 +3522,8 @@
       <c r="F89" s="39"/>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="39"/>
       <c r="D90" s="16" t="s">
         <v>261</v>
@@ -3534,8 +3534,8 @@
       <c r="F90" s="39"/>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="39"/>
       <c r="D91" s="16" t="s">
         <v>269</v>
@@ -3546,8 +3546,8 @@
       <c r="F91" s="39"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="39"/>
       <c r="D92" s="16" t="s">
         <v>271</v>
@@ -3558,8 +3558,8 @@
       <c r="F92" s="39"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
-      <c r="B93" s="51"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="39"/>
       <c r="D93" s="16" t="s">
         <v>272</v>
@@ -3570,10 +3570,10 @@
       <c r="F93" s="39"/>
     </row>
     <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="44" t="s">
+      <c r="A94" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="B94" s="44" t="s">
+      <c r="B94" s="48" t="s">
         <v>291</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -3588,8 +3588,8 @@
       <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="17" t="s">
         <v>113</v>
       </c>
@@ -3602,8 +3602,8 @@
       <c r="F95" s="29"/>
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="18"/>
       <c r="D96" s="17" t="s">
         <v>287</v>
@@ -3614,8 +3614,8 @@
       <c r="F96" s="29"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
+      <c r="A97" s="49"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="18"/>
       <c r="D97" s="17" t="s">
         <v>289</v>
@@ -3624,8 +3624,8 @@
       <c r="F97" s="29"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
-      <c r="B98" s="46"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="17" t="s">
         <v>295</v>
       </c>
@@ -3638,10 +3638,10 @@
       <c r="F98" s="29"/>
     </row>
     <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="B99" s="47" t="s">
+      <c r="B99" s="51" t="s">
         <v>293</v>
       </c>
       <c r="C99" s="24" t="s">
@@ -3656,8 +3656,8 @@
       <c r="F99" s="30"/>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
-      <c r="B100" s="48"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="24" t="s">
         <v>113</v>
       </c>
@@ -3670,8 +3670,8 @@
       <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
-      <c r="B101" s="48"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="25"/>
       <c r="D101" s="24" t="s">
         <v>287</v>
@@ -3682,8 +3682,8 @@
       <c r="F101" s="30"/>
     </row>
     <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
-      <c r="B102" s="48"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="24" t="s">
         <v>295</v>
       </c>
@@ -3696,8 +3696,8 @@
       <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
-      <c r="B103" s="48"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="24" t="s">
         <v>107</v>
       </c>
@@ -3710,8 +3710,8 @@
       <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
-      <c r="B104" s="48"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="25" t="s">
         <v>263</v>
       </c>
@@ -3722,8 +3722,8 @@
       <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
-      <c r="B105" s="49"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="24" t="s">
         <v>257</v>
       </c>
@@ -3736,10 +3736,10 @@
       <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="44" t="s">
+      <c r="A106" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="B106" s="44" t="s">
+      <c r="B106" s="48" t="s">
         <v>299</v>
       </c>
       <c r="C106" s="17" t="s">
@@ -3754,8 +3754,8 @@
       <c r="F106" s="29"/>
     </row>
     <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
+      <c r="A107" s="49"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="17" t="s">
         <v>113</v>
       </c>
@@ -3768,8 +3768,8 @@
       <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
+      <c r="A108" s="49"/>
+      <c r="B108" s="49"/>
       <c r="C108" s="18"/>
       <c r="D108" s="17" t="s">
         <v>287</v>
@@ -3780,8 +3780,8 @@
       <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="17" t="s">
         <v>295</v>
       </c>
@@ -3794,8 +3794,8 @@
       <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="17" t="s">
         <v>122</v>
       </c>
@@ -3808,8 +3808,8 @@
       <c r="F110" s="29"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
+      <c r="A111" s="49"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="18" t="s">
         <v>263</v>
       </c>
@@ -3820,8 +3820,8 @@
       <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
+      <c r="A112" s="50"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="17" t="s">
         <v>126</v>
       </c>
@@ -3835,11 +3835,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
     <mergeCell ref="B59:B69"/>
     <mergeCell ref="A59:A69"/>
     <mergeCell ref="A80:A86"/>
@@ -3848,12 +3849,11 @@
     <mergeCell ref="B87:B93"/>
     <mergeCell ref="A70:A79"/>
     <mergeCell ref="B70:B79"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3865,8 +3865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,58 +3881,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="A5" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="A6" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -4331,10 +4331,10 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="56" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -4349,8 +4349,8 @@
       <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="16" t="s">
         <v>101</v>
       </c>
@@ -4363,8 +4363,8 @@
       <c r="F30" s="39"/>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
         <v>250</v>
@@ -4375,8 +4375,8 @@
       <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="16" t="s">
         <v>215</v>
       </c>
@@ -4389,8 +4389,8 @@
       <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="16" t="s">
         <v>107</v>
       </c>
@@ -4403,8 +4403,8 @@
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="38"/>
       <c r="D34" s="16" t="s">
         <v>251</v>
@@ -4415,8 +4415,8 @@
       <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="16" t="s">
         <v>109</v>
       </c>
@@ -4425,8 +4425,8 @@
       <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="16" t="s">
         <v>111</v>
       </c>
@@ -4437,8 +4437,8 @@
       <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="38"/>
       <c r="D37" s="16" t="s">
         <v>246</v>
@@ -4449,8 +4449,8 @@
       <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="16" t="s">
         <v>109</v>
       </c>
@@ -4463,10 +4463,10 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -4481,8 +4481,8 @@
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="17" t="s">
         <v>113</v>
       </c>
@@ -4495,8 +4495,8 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="18"/>
       <c r="D41" s="17" t="s">
         <v>250</v>
@@ -4507,8 +4507,8 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="17" t="s">
         <v>215</v>
       </c>
@@ -4521,8 +4521,8 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
@@ -4535,8 +4535,8 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
         <v>251</v>
@@ -4547,8 +4547,8 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="17" t="s">
         <v>109</v>
       </c>
@@ -4557,8 +4557,8 @@
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="17" t="s">
         <v>114</v>
       </c>
@@ -4569,8 +4569,8 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="17" t="s">
         <v>114</v>
       </c>
@@ -4583,8 +4583,8 @@
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="17" t="s">
         <v>109</v>
       </c>
@@ -4597,10 +4597,10 @@
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="56" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -4615,8 +4615,8 @@
       <c r="F49" s="39"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="16" t="s">
         <v>107</v>
       </c>
@@ -4629,8 +4629,8 @@
       <c r="F50" s="39"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="38"/>
       <c r="D51" s="16" t="s">
         <v>250</v>
@@ -4641,8 +4641,8 @@
       <c r="F51" s="39"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="16" t="s">
         <v>215</v>
       </c>
@@ -4655,8 +4655,8 @@
       <c r="F52" s="39"/>
     </row>
     <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="16" t="s">
         <v>256</v>
       </c>
@@ -4669,8 +4669,8 @@
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="38"/>
       <c r="D54" s="16" t="s">
         <v>251</v>
@@ -4681,8 +4681,8 @@
       <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
@@ -4693,8 +4693,8 @@
       <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16" t="s">
         <v>253</v>
@@ -4705,8 +4705,8 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="16" t="s">
         <v>114</v>
       </c>
@@ -4719,8 +4719,8 @@
       <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
         <v>259</v>
@@ -4731,8 +4731,8 @@
       <c r="F58" s="39"/>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="16" t="s">
         <v>109</v>
       </c>
@@ -4745,10 +4745,10 @@
       <c r="F59" s="39"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C60" s="17" t="s">
@@ -4763,8 +4763,8 @@
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="17" t="s">
         <v>113</v>
       </c>
@@ -4777,8 +4777,8 @@
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17" t="s">
         <v>118</v>
@@ -4789,8 +4789,8 @@
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17" t="s">
         <v>261</v>
@@ -4801,8 +4801,8 @@
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="17" t="s">
         <v>215</v>
       </c>
@@ -4815,8 +4815,8 @@
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="17" t="s">
         <v>122</v>
       </c>
@@ -4829,8 +4829,8 @@
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17" t="s">
         <v>124</v>
@@ -4841,8 +4841,8 @@
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17" t="s">
         <v>262</v>
@@ -4853,8 +4853,8 @@
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="17" t="s">
         <v>263</v>
       </c>
@@ -4867,8 +4867,8 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="17" t="s">
         <v>264</v>
       </c>
@@ -4881,10 +4881,10 @@
       <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="55" t="s">
         <v>274</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -4899,8 +4899,8 @@
       <c r="F70" s="39"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="38" t="s">
         <v>107</v>
       </c>
@@ -4913,8 +4913,8 @@
       <c r="F71" s="39"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="39"/>
       <c r="D72" s="16" t="s">
         <v>118</v>
@@ -4925,8 +4925,8 @@
       <c r="F72" s="39"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="51"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="39"/>
       <c r="D73" s="16" t="s">
         <v>261</v>
@@ -4937,8 +4937,8 @@
       <c r="F73" s="39"/>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="39"/>
       <c r="D74" s="16" t="s">
         <v>269</v>
@@ -4949,8 +4949,8 @@
       <c r="F74" s="39"/>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="39"/>
       <c r="D75" s="16" t="s">
         <v>271</v>
@@ -4961,8 +4961,8 @@
       <c r="F75" s="39"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="39"/>
       <c r="D76" s="16" t="s">
         <v>272</v>
@@ -4973,10 +4973,10 @@
       <c r="F76" s="39"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="54" t="s">
         <v>276</v>
       </c>
       <c r="C77" s="17" t="s">
@@ -4991,8 +4991,8 @@
       <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="18" t="s">
         <v>107</v>
       </c>
@@ -5005,8 +5005,8 @@
       <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="29"/>
       <c r="D79" s="17" t="s">
         <v>118</v>
@@ -5017,8 +5017,8 @@
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="29"/>
       <c r="D80" s="17" t="s">
         <v>261</v>
@@ -5029,8 +5029,8 @@
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="29"/>
       <c r="D81" s="17" t="s">
         <v>269</v>
@@ -5041,8 +5041,8 @@
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="29"/>
       <c r="D82" s="17" t="s">
         <v>271</v>
@@ -5053,8 +5053,8 @@
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="50"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
         <v>272</v>
@@ -5065,10 +5065,10 @@
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="B84" s="51" t="s">
+      <c r="A84" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="B84" s="55" t="s">
         <v>301</v>
       </c>
       <c r="C84" s="16" t="s">
@@ -5083,23 +5083,23 @@
       <c r="F84" s="39"/>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="51"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="39"/>
       <c r="D85" s="38" t="s">
         <v>304</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F85" s="39"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="51"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="39"/>
       <c r="D86" s="38" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>302</v>
@@ -5107,19 +5107,25 @@
       <c r="F86" s="39"/>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="51"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="39"/>
       <c r="D87" s="38" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F87" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A60:A69"/>
     <mergeCell ref="B60:B69"/>
@@ -5129,12 +5135,6 @@
     <mergeCell ref="B39:B48"/>
     <mergeCell ref="B49:B59"/>
     <mergeCell ref="A49:A59"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/6. Test/AS_TE_SystemTest.xlsx
+++ b/6. Test/AS_TE_SystemTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="315">
   <si>
     <t>TC ID</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>4.Chọn "Có"</t>
+  </si>
+  <si>
+    <t>Thông tin câu hỏi  được lưu vào cơ sở dữ liệu. Danh sách có sẵn được cập nhật</t>
   </si>
 </sst>
 </file>
@@ -1591,31 +1594,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1626,15 +1638,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2211,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,30 +2229,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -2507,7 +2510,7 @@
         <v>170</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="F20" s="24"/>
     </row>
@@ -2836,10 +2839,10 @@
       <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -2854,8 +2857,8 @@
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="17" t="s">
         <v>101</v>
       </c>
@@ -2868,8 +2871,8 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>250</v>
@@ -2880,8 +2883,8 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="17" t="s">
         <v>295</v>
       </c>
@@ -2894,8 +2897,8 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
@@ -2908,8 +2911,8 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
         <v>251</v>
@@ -2920,8 +2923,8 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="17" t="s">
         <v>109</v>
       </c>
@@ -2930,8 +2933,8 @@
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="17" t="s">
         <v>111</v>
       </c>
@@ -2942,8 +2945,8 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="18"/>
       <c r="D47" s="17" t="s">
         <v>246</v>
@@ -2954,8 +2957,8 @@
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="17" t="s">
         <v>109</v>
       </c>
@@ -2968,10 +2971,10 @@
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="50" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="24" t="s">
@@ -2986,8 +2989,8 @@
       <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="24" t="s">
         <v>113</v>
       </c>
@@ -3000,8 +3003,8 @@
       <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="25"/>
       <c r="D51" s="24" t="s">
         <v>250</v>
@@ -3012,8 +3015,8 @@
       <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="24" t="s">
         <v>295</v>
       </c>
@@ -3026,8 +3029,8 @@
       <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="24" t="s">
         <v>107</v>
       </c>
@@ -3040,8 +3043,8 @@
       <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="25"/>
       <c r="D54" s="24" t="s">
         <v>251</v>
@@ -3052,8 +3055,8 @@
       <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="24" t="s">
         <v>109</v>
       </c>
@@ -3062,8 +3065,8 @@
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="24" t="s">
         <v>114</v>
       </c>
@@ -3074,8 +3077,8 @@
       <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="24" t="s">
         <v>114</v>
       </c>
@@ -3088,8 +3091,8 @@
       <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="24" t="s">
         <v>109</v>
       </c>
@@ -3102,10 +3105,10 @@
       <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -3120,8 +3123,8 @@
       <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="17" t="s">
         <v>107</v>
       </c>
@@ -3134,8 +3137,8 @@
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="18"/>
       <c r="D61" s="17" t="s">
         <v>104</v>
@@ -3146,8 +3149,8 @@
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="17" t="s">
         <v>295</v>
       </c>
@@ -3160,8 +3163,8 @@
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="49"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="17" t="s">
         <v>256</v>
       </c>
@@ -3174,8 +3177,8 @@
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="18"/>
       <c r="D64" s="17" t="s">
         <v>251</v>
@@ -3186,8 +3189,8 @@
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="49"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="17" t="s">
         <v>109</v>
       </c>
@@ -3198,8 +3201,8 @@
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
         <v>253</v>
@@ -3210,8 +3213,8 @@
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="17" t="s">
         <v>114</v>
       </c>
@@ -3224,8 +3227,8 @@
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17" t="s">
         <v>259</v>
@@ -3236,8 +3239,8 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="17" t="s">
         <v>109</v>
       </c>
@@ -3250,10 +3253,10 @@
       <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="50" t="s">
         <v>117</v>
       </c>
       <c r="C70" s="24" t="s">
@@ -3268,8 +3271,8 @@
       <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="24" t="s">
         <v>113</v>
       </c>
@@ -3282,8 +3285,8 @@
       <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="25"/>
       <c r="D72" s="24" t="s">
         <v>118</v>
@@ -3294,8 +3297,8 @@
       <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="25"/>
       <c r="D73" s="24" t="s">
         <v>120</v>
@@ -3306,8 +3309,8 @@
       <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="24" t="s">
         <v>295</v>
       </c>
@@ -3320,8 +3323,8 @@
       <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="24" t="s">
         <v>122</v>
       </c>
@@ -3334,8 +3337,8 @@
       <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
-      <c r="B76" s="52"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="25"/>
       <c r="D76" s="24" t="s">
         <v>124</v>
@@ -3346,8 +3349,8 @@
       <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="25"/>
       <c r="D77" s="24" t="s">
         <v>125</v>
@@ -3358,8 +3361,8 @@
       <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="24" t="s">
         <v>126</v>
       </c>
@@ -3372,8 +3375,8 @@
       <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="24" t="s">
         <v>113</v>
       </c>
@@ -3386,10 +3389,10 @@
       <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="54" t="s">
+      <c r="B80" s="53" t="s">
         <v>274</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -3404,8 +3407,8 @@
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="18" t="s">
         <v>107</v>
       </c>
@@ -3418,8 +3421,8 @@
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="29"/>
       <c r="D82" s="17" t="s">
         <v>118</v>
@@ -3430,8 +3433,8 @@
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
         <v>261</v>
@@ -3442,8 +3445,8 @@
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="29"/>
       <c r="D84" s="17" t="s">
         <v>269</v>
@@ -3454,8 +3457,8 @@
       <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="29"/>
       <c r="D85" s="17" t="s">
         <v>271</v>
@@ -3466,8 +3469,8 @@
       <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="29"/>
       <c r="D86" s="17" t="s">
         <v>272</v>
@@ -3478,10 +3481,10 @@
       <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="54" t="s">
         <v>276</v>
       </c>
       <c r="C87" s="16" t="s">
@@ -3496,8 +3499,8 @@
       <c r="F87" s="39"/>
     </row>
     <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
-      <c r="B88" s="55"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="38" t="s">
         <v>107</v>
       </c>
@@ -3510,8 +3513,8 @@
       <c r="F88" s="39"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="55"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="39"/>
       <c r="D89" s="16" t="s">
         <v>118</v>
@@ -3522,8 +3525,8 @@
       <c r="F89" s="39"/>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="55"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="39"/>
       <c r="D90" s="16" t="s">
         <v>261</v>
@@ -3534,8 +3537,8 @@
       <c r="F90" s="39"/>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="39"/>
       <c r="D91" s="16" t="s">
         <v>269</v>
@@ -3546,8 +3549,8 @@
       <c r="F91" s="39"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="55"/>
+      <c r="A92" s="54"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="39"/>
       <c r="D92" s="16" t="s">
         <v>271</v>
@@ -3558,8 +3561,8 @@
       <c r="F92" s="39"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="55"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="39"/>
       <c r="D93" s="16" t="s">
         <v>272</v>
@@ -3570,10 +3573,10 @@
       <c r="F93" s="39"/>
     </row>
     <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="47" t="s">
         <v>291</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -3588,8 +3591,8 @@
       <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="17" t="s">
         <v>113</v>
       </c>
@@ -3602,8 +3605,8 @@
       <c r="F95" s="29"/>
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="18"/>
       <c r="D96" s="17" t="s">
         <v>287</v>
@@ -3614,8 +3617,8 @@
       <c r="F96" s="29"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="49"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="18"/>
       <c r="D97" s="17" t="s">
         <v>289</v>
@@ -3624,8 +3627,8 @@
       <c r="F97" s="29"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
       <c r="C98" s="17" t="s">
         <v>295</v>
       </c>
@@ -3638,10 +3641,10 @@
       <c r="F98" s="29"/>
     </row>
     <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="50" t="s">
         <v>293</v>
       </c>
       <c r="C99" s="24" t="s">
@@ -3656,8 +3659,8 @@
       <c r="F99" s="30"/>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="52"/>
-      <c r="B100" s="52"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="24" t="s">
         <v>113</v>
       </c>
@@ -3670,8 +3673,8 @@
       <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="52"/>
-      <c r="B101" s="52"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="51"/>
       <c r="C101" s="25"/>
       <c r="D101" s="24" t="s">
         <v>287</v>
@@ -3682,8 +3685,8 @@
       <c r="F101" s="30"/>
     </row>
     <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="52"/>
-      <c r="B102" s="52"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="24" t="s">
         <v>295</v>
       </c>
@@ -3696,8 +3699,8 @@
       <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="24" t="s">
         <v>107</v>
       </c>
@@ -3710,8 +3713,8 @@
       <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
+      <c r="A104" s="51"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="25" t="s">
         <v>263</v>
       </c>
@@ -3722,8 +3725,8 @@
       <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="53"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="24" t="s">
         <v>257</v>
       </c>
@@ -3736,10 +3739,10 @@
       <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="B106" s="48" t="s">
+      <c r="B106" s="47" t="s">
         <v>299</v>
       </c>
       <c r="C106" s="17" t="s">
@@ -3754,8 +3757,8 @@
       <c r="F106" s="29"/>
     </row>
     <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
-      <c r="B107" s="49"/>
+      <c r="A107" s="48"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="17" t="s">
         <v>113</v>
       </c>
@@ -3768,8 +3771,8 @@
       <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="49"/>
-      <c r="B108" s="49"/>
+      <c r="A108" s="48"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="18"/>
       <c r="D108" s="17" t="s">
         <v>287</v>
@@ -3780,8 +3783,8 @@
       <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
-      <c r="B109" s="49"/>
+      <c r="A109" s="48"/>
+      <c r="B109" s="48"/>
       <c r="C109" s="17" t="s">
         <v>295</v>
       </c>
@@ -3794,8 +3797,8 @@
       <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
-      <c r="B110" s="49"/>
+      <c r="A110" s="48"/>
+      <c r="B110" s="48"/>
       <c r="C110" s="17" t="s">
         <v>122</v>
       </c>
@@ -3808,8 +3811,8 @@
       <c r="F110" s="29"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="49"/>
-      <c r="B111" s="49"/>
+      <c r="A111" s="48"/>
+      <c r="B111" s="48"/>
       <c r="C111" s="18" t="s">
         <v>263</v>
       </c>
@@ -3820,8 +3823,8 @@
       <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
-      <c r="B112" s="50"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="17" t="s">
         <v>126</v>
       </c>
@@ -3835,12 +3838,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:B58"/>
     <mergeCell ref="B59:B69"/>
     <mergeCell ref="A59:A69"/>
     <mergeCell ref="A80:A86"/>
@@ -3849,11 +3851,12 @@
     <mergeCell ref="B87:B93"/>
     <mergeCell ref="A70:A79"/>
     <mergeCell ref="B70:B79"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3865,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,30 +3884,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -4331,10 +4334,10 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="59" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -4349,8 +4352,8 @@
       <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="16" t="s">
         <v>101</v>
       </c>
@@ -4363,8 +4366,8 @@
       <c r="F30" s="39"/>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
         <v>250</v>
@@ -4375,8 +4378,8 @@
       <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="16" t="s">
         <v>215</v>
       </c>
@@ -4389,8 +4392,8 @@
       <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="16" t="s">
         <v>107</v>
       </c>
@@ -4403,8 +4406,8 @@
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="38"/>
       <c r="D34" s="16" t="s">
         <v>251</v>
@@ -4415,8 +4418,8 @@
       <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="16" t="s">
         <v>109</v>
       </c>
@@ -4425,8 +4428,8 @@
       <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="16" t="s">
         <v>111</v>
       </c>
@@ -4437,8 +4440,8 @@
       <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="38"/>
       <c r="D37" s="16" t="s">
         <v>246</v>
@@ -4449,8 +4452,8 @@
       <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="16" t="s">
         <v>109</v>
       </c>
@@ -4463,10 +4466,10 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>112</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -4481,8 +4484,8 @@
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="17" t="s">
         <v>113</v>
       </c>
@@ -4495,8 +4498,8 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="18"/>
       <c r="D41" s="17" t="s">
         <v>250</v>
@@ -4507,8 +4510,8 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="17" t="s">
         <v>215</v>
       </c>
@@ -4521,8 +4524,8 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
@@ -4535,8 +4538,8 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
         <v>251</v>
@@ -4547,8 +4550,8 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="17" t="s">
         <v>109</v>
       </c>
@@ -4557,8 +4560,8 @@
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="17" t="s">
         <v>114</v>
       </c>
@@ -4569,8 +4572,8 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="17" t="s">
         <v>114</v>
       </c>
@@ -4583,8 +4586,8 @@
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="17" t="s">
         <v>109</v>
       </c>
@@ -4597,10 +4600,10 @@
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="59" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -4615,8 +4618,8 @@
       <c r="F49" s="39"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="16" t="s">
         <v>107</v>
       </c>
@@ -4629,8 +4632,8 @@
       <c r="F50" s="39"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="38"/>
       <c r="D51" s="16" t="s">
         <v>250</v>
@@ -4641,8 +4644,8 @@
       <c r="F51" s="39"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="16" t="s">
         <v>215</v>
       </c>
@@ -4655,8 +4658,8 @@
       <c r="F52" s="39"/>
     </row>
     <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="16" t="s">
         <v>256</v>
       </c>
@@ -4669,8 +4672,8 @@
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="38"/>
       <c r="D54" s="16" t="s">
         <v>251</v>
@@ -4681,8 +4684,8 @@
       <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
@@ -4693,8 +4696,8 @@
       <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16" t="s">
         <v>253</v>
@@ -4705,8 +4708,8 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="16" t="s">
         <v>114</v>
       </c>
@@ -4719,8 +4722,8 @@
       <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
         <v>259</v>
@@ -4731,8 +4734,8 @@
       <c r="F58" s="39"/>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="16" t="s">
         <v>109</v>
       </c>
@@ -4745,10 +4748,10 @@
       <c r="F59" s="39"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="47" t="s">
         <v>117</v>
       </c>
       <c r="C60" s="17" t="s">
@@ -4763,8 +4766,8 @@
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="17" t="s">
         <v>113</v>
       </c>
@@ -4777,8 +4780,8 @@
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17" t="s">
         <v>118</v>
@@ -4789,8 +4792,8 @@
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="49"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17" t="s">
         <v>261</v>
@@ -4801,8 +4804,8 @@
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="17" t="s">
         <v>215</v>
       </c>
@@ -4815,8 +4818,8 @@
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="49"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="17" t="s">
         <v>122</v>
       </c>
@@ -4829,8 +4832,8 @@
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17" t="s">
         <v>124</v>
@@ -4841,8 +4844,8 @@
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17" t="s">
         <v>262</v>
@@ -4853,8 +4856,8 @@
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="17" t="s">
         <v>263</v>
       </c>
@@ -4867,8 +4870,8 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="17" t="s">
         <v>264</v>
       </c>
@@ -4881,10 +4884,10 @@
       <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="54" t="s">
         <v>274</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -4899,8 +4902,8 @@
       <c r="F70" s="39"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="55"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="38" t="s">
         <v>107</v>
       </c>
@@ -4913,8 +4916,8 @@
       <c r="F71" s="39"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="39"/>
       <c r="D72" s="16" t="s">
         <v>118</v>
@@ -4925,8 +4928,8 @@
       <c r="F72" s="39"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="55"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="39"/>
       <c r="D73" s="16" t="s">
         <v>261</v>
@@ -4937,8 +4940,8 @@
       <c r="F73" s="39"/>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="39"/>
       <c r="D74" s="16" t="s">
         <v>269</v>
@@ -4949,8 +4952,8 @@
       <c r="F74" s="39"/>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="39"/>
       <c r="D75" s="16" t="s">
         <v>271</v>
@@ -4961,8 +4964,8 @@
       <c r="F75" s="39"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="55"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="39"/>
       <c r="D76" s="16" t="s">
         <v>272</v>
@@ -4973,10 +4976,10 @@
       <c r="F76" s="39"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="53" t="s">
         <v>276</v>
       </c>
       <c r="C77" s="17" t="s">
@@ -4991,8 +4994,8 @@
       <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
       <c r="C78" s="18" t="s">
         <v>107</v>
       </c>
@@ -5005,8 +5008,8 @@
       <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="29"/>
       <c r="D79" s="17" t="s">
         <v>118</v>
@@ -5017,8 +5020,8 @@
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
       <c r="C80" s="29"/>
       <c r="D80" s="17" t="s">
         <v>261</v>
@@ -5029,8 +5032,8 @@
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="29"/>
       <c r="D81" s="17" t="s">
         <v>269</v>
@@ -5041,8 +5044,8 @@
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="29"/>
       <c r="D82" s="17" t="s">
         <v>271</v>
@@ -5053,8 +5056,8 @@
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
         <v>272</v>
@@ -5065,10 +5068,10 @@
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="s">
+      <c r="A84" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="54" t="s">
         <v>301</v>
       </c>
       <c r="C84" s="16" t="s">
@@ -5083,8 +5086,8 @@
       <c r="F84" s="39"/>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="60"/>
-      <c r="B85" s="55"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="39"/>
       <c r="D85" s="38" t="s">
         <v>304</v>
@@ -5095,8 +5098,8 @@
       <c r="F85" s="39"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="60"/>
-      <c r="B86" s="55"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="39"/>
       <c r="D86" s="38" t="s">
         <v>312</v>
@@ -5107,8 +5110,8 @@
       <c r="F86" s="39"/>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="55"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="39"/>
       <c r="D87" s="38" t="s">
         <v>313</v>
@@ -5120,12 +5123,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A60:A69"/>
     <mergeCell ref="B60:B69"/>
@@ -5135,6 +5132,12 @@
     <mergeCell ref="B39:B48"/>
     <mergeCell ref="B49:B59"/>
     <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/6. Test/AS_TE_SystemTest.xlsx
+++ b/6. Test/AS_TE_SystemTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="317">
   <si>
     <t>TC ID</t>
   </si>
@@ -1127,6 +1127,14 @@
   </si>
   <si>
     <t>Thông tin câu hỏi  được lưu vào cơ sở dữ liệu. Danh sách có sẵn được cập nhật</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập vào trang web. 
+Trong cơ sở dữ liệu có sẵn câu hỏi câu nội dung có từ 'tuyển sinh'</t>
+  </si>
+  <si>
+    <t>Danh sách hiển thị câu hỏi có nội dung tương ứng với từ khóa tìm kiếm
+Hiển thị thông báo không tìm thấy dữ liệu tương ứng với từ khóa</t>
   </si>
 </sst>
 </file>
@@ -1594,6 +1602,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1618,8 +1629,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1629,15 +1646,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2214,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,30 +2237,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -2550,7 +2558,7 @@
       </c>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>148</v>
       </c>
@@ -2558,13 +2566,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>7</v>
+        <v>315</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="F23" s="17"/>
     </row>
@@ -2839,10 +2847,10 @@
       <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -2857,8 +2865,8 @@
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="17" t="s">
         <v>101</v>
       </c>
@@ -2871,8 +2879,8 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>250</v>
@@ -2883,8 +2891,8 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="17" t="s">
         <v>295</v>
       </c>
@@ -2897,8 +2905,8 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
@@ -2911,8 +2919,8 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
         <v>251</v>
@@ -2923,8 +2931,8 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="17" t="s">
         <v>109</v>
       </c>
@@ -2933,8 +2941,8 @@
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="17" t="s">
         <v>111</v>
       </c>
@@ -2945,8 +2953,8 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="18"/>
       <c r="D47" s="17" t="s">
         <v>246</v>
@@ -2957,8 +2965,8 @@
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="17" t="s">
         <v>109</v>
       </c>
@@ -2971,10 +2979,10 @@
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="51" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="24" t="s">
@@ -2989,8 +2997,8 @@
       <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="24" t="s">
         <v>113</v>
       </c>
@@ -3003,8 +3011,8 @@
       <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="25"/>
       <c r="D51" s="24" t="s">
         <v>250</v>
@@ -3015,8 +3023,8 @@
       <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="24" t="s">
         <v>295</v>
       </c>
@@ -3029,8 +3037,8 @@
       <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="24" t="s">
         <v>107</v>
       </c>
@@ -3043,8 +3051,8 @@
       <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="25"/>
       <c r="D54" s="24" t="s">
         <v>251</v>
@@ -3055,8 +3063,8 @@
       <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="24" t="s">
         <v>109</v>
       </c>
@@ -3065,8 +3073,8 @@
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="24" t="s">
         <v>114</v>
       </c>
@@ -3077,8 +3085,8 @@
       <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="24" t="s">
         <v>114</v>
       </c>
@@ -3091,8 +3099,8 @@
       <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="24" t="s">
         <v>109</v>
       </c>
@@ -3105,10 +3113,10 @@
       <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -3123,8 +3131,8 @@
       <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="17" t="s">
         <v>107</v>
       </c>
@@ -3137,8 +3145,8 @@
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="18"/>
       <c r="D61" s="17" t="s">
         <v>104</v>
@@ -3149,8 +3157,8 @@
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="17" t="s">
         <v>295</v>
       </c>
@@ -3163,8 +3171,8 @@
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="17" t="s">
         <v>256</v>
       </c>
@@ -3177,8 +3185,8 @@
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="18"/>
       <c r="D64" s="17" t="s">
         <v>251</v>
@@ -3189,8 +3197,8 @@
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="48"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="17" t="s">
         <v>109</v>
       </c>
@@ -3201,8 +3209,8 @@
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
         <v>253</v>
@@ -3213,8 +3221,8 @@
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="17" t="s">
         <v>114</v>
       </c>
@@ -3227,8 +3235,8 @@
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17" t="s">
         <v>259</v>
@@ -3239,8 +3247,8 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="49"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="17" t="s">
         <v>109</v>
       </c>
@@ -3253,10 +3261,10 @@
       <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="51" t="s">
         <v>117</v>
       </c>
       <c r="C70" s="24" t="s">
@@ -3271,8 +3279,8 @@
       <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="24" t="s">
         <v>113</v>
       </c>
@@ -3285,8 +3293,8 @@
       <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="25"/>
       <c r="D72" s="24" t="s">
         <v>118</v>
@@ -3297,8 +3305,8 @@
       <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="51"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="25"/>
       <c r="D73" s="24" t="s">
         <v>120</v>
@@ -3309,8 +3317,8 @@
       <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="24" t="s">
         <v>295</v>
       </c>
@@ -3323,8 +3331,8 @@
       <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="24" t="s">
         <v>122</v>
       </c>
@@ -3337,8 +3345,8 @@
       <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="25"/>
       <c r="D76" s="24" t="s">
         <v>124</v>
@@ -3349,8 +3357,8 @@
       <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="25"/>
       <c r="D77" s="24" t="s">
         <v>125</v>
@@ -3361,8 +3369,8 @@
       <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="24" t="s">
         <v>126</v>
       </c>
@@ -3375,8 +3383,8 @@
       <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="24" t="s">
         <v>113</v>
       </c>
@@ -3389,10 +3397,10 @@
       <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="53" t="s">
+      <c r="B80" s="54" t="s">
         <v>274</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -3407,8 +3415,8 @@
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="18" t="s">
         <v>107</v>
       </c>
@@ -3421,8 +3429,8 @@
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="29"/>
       <c r="D82" s="17" t="s">
         <v>118</v>
@@ -3433,8 +3441,8 @@
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
         <v>261</v>
@@ -3445,8 +3453,8 @@
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="29"/>
       <c r="D84" s="17" t="s">
         <v>269</v>
@@ -3457,8 +3465,8 @@
       <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="29"/>
       <c r="D85" s="17" t="s">
         <v>271</v>
@@ -3469,8 +3477,8 @@
       <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="29"/>
       <c r="D86" s="17" t="s">
         <v>272</v>
@@ -3481,10 +3489,10 @@
       <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="B87" s="54" t="s">
+      <c r="B87" s="55" t="s">
         <v>276</v>
       </c>
       <c r="C87" s="16" t="s">
@@ -3499,8 +3507,8 @@
       <c r="F87" s="39"/>
     </row>
     <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="38" t="s">
         <v>107</v>
       </c>
@@ -3513,8 +3521,8 @@
       <c r="F88" s="39"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="39"/>
       <c r="D89" s="16" t="s">
         <v>118</v>
@@ -3525,8 +3533,8 @@
       <c r="F89" s="39"/>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="54"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="39"/>
       <c r="D90" s="16" t="s">
         <v>261</v>
@@ -3537,8 +3545,8 @@
       <c r="F90" s="39"/>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="39"/>
       <c r="D91" s="16" t="s">
         <v>269</v>
@@ -3549,8 +3557,8 @@
       <c r="F91" s="39"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="54"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="39"/>
       <c r="D92" s="16" t="s">
         <v>271</v>
@@ -3561,8 +3569,8 @@
       <c r="F92" s="39"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="54"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="39"/>
       <c r="D93" s="16" t="s">
         <v>272</v>
@@ -3573,10 +3581,10 @@
       <c r="F93" s="39"/>
     </row>
     <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="B94" s="47" t="s">
+      <c r="B94" s="48" t="s">
         <v>291</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -3591,8 +3599,8 @@
       <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="17" t="s">
         <v>113</v>
       </c>
@@ -3605,8 +3613,8 @@
       <c r="F95" s="29"/>
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
-      <c r="B96" s="48"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="18"/>
       <c r="D96" s="17" t="s">
         <v>287</v>
@@ -3617,8 +3625,8 @@
       <c r="F96" s="29"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
-      <c r="B97" s="48"/>
+      <c r="A97" s="49"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="18"/>
       <c r="D97" s="17" t="s">
         <v>289</v>
@@ -3627,8 +3635,8 @@
       <c r="F97" s="29"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="17" t="s">
         <v>295</v>
       </c>
@@ -3641,10 +3649,10 @@
       <c r="F98" s="29"/>
     </row>
     <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="50" t="s">
+      <c r="A99" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="51" t="s">
         <v>293</v>
       </c>
       <c r="C99" s="24" t="s">
@@ -3659,8 +3667,8 @@
       <c r="F99" s="30"/>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="51"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="24" t="s">
         <v>113</v>
       </c>
@@ -3673,8 +3681,8 @@
       <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
-      <c r="B101" s="51"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="25"/>
       <c r="D101" s="24" t="s">
         <v>287</v>
@@ -3685,8 +3693,8 @@
       <c r="F101" s="30"/>
     </row>
     <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
-      <c r="B102" s="51"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="24" t="s">
         <v>295</v>
       </c>
@@ -3699,8 +3707,8 @@
       <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
-      <c r="B103" s="51"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="24" t="s">
         <v>107</v>
       </c>
@@ -3713,8 +3721,8 @@
       <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="51"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="25" t="s">
         <v>263</v>
       </c>
@@ -3725,8 +3733,8 @@
       <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="24" t="s">
         <v>257</v>
       </c>
@@ -3739,10 +3747,10 @@
       <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="B106" s="47" t="s">
+      <c r="B106" s="48" t="s">
         <v>299</v>
       </c>
       <c r="C106" s="17" t="s">
@@ -3757,8 +3765,8 @@
       <c r="F106" s="29"/>
     </row>
     <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
-      <c r="B107" s="48"/>
+      <c r="A107" s="49"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="17" t="s">
         <v>113</v>
       </c>
@@ -3771,8 +3779,8 @@
       <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
-      <c r="B108" s="48"/>
+      <c r="A108" s="49"/>
+      <c r="B108" s="49"/>
       <c r="C108" s="18"/>
       <c r="D108" s="17" t="s">
         <v>287</v>
@@ -3783,8 +3791,8 @@
       <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
-      <c r="B109" s="48"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="17" t="s">
         <v>295</v>
       </c>
@@ -3797,8 +3805,8 @@
       <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
-      <c r="B110" s="48"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="17" t="s">
         <v>122</v>
       </c>
@@ -3811,8 +3819,8 @@
       <c r="F110" s="29"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
-      <c r="B111" s="48"/>
+      <c r="A111" s="49"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="18" t="s">
         <v>263</v>
       </c>
@@ -3823,8 +3831,8 @@
       <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="49"/>
+      <c r="A112" s="50"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="17" t="s">
         <v>126</v>
       </c>
@@ -3838,11 +3846,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
     <mergeCell ref="B59:B69"/>
     <mergeCell ref="A59:A69"/>
     <mergeCell ref="A80:A86"/>
@@ -3851,12 +3860,11 @@
     <mergeCell ref="B87:B93"/>
     <mergeCell ref="A70:A79"/>
     <mergeCell ref="B70:B79"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3884,30 +3892,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
@@ -4334,10 +4342,10 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -4352,8 +4360,8 @@
       <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="16" t="s">
         <v>101</v>
       </c>
@@ -4366,8 +4374,8 @@
       <c r="F30" s="39"/>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
         <v>250</v>
@@ -4378,8 +4386,8 @@
       <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="16" t="s">
         <v>215</v>
       </c>
@@ -4392,8 +4400,8 @@
       <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="16" t="s">
         <v>107</v>
       </c>
@@ -4406,8 +4414,8 @@
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="38"/>
       <c r="D34" s="16" t="s">
         <v>251</v>
@@ -4418,8 +4426,8 @@
       <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="16" t="s">
         <v>109</v>
       </c>
@@ -4428,8 +4436,8 @@
       <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="16" t="s">
         <v>111</v>
       </c>
@@ -4440,8 +4448,8 @@
       <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="38"/>
       <c r="D37" s="16" t="s">
         <v>246</v>
@@ -4452,8 +4460,8 @@
       <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="16" t="s">
         <v>109</v>
       </c>
@@ -4466,10 +4474,10 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -4484,8 +4492,8 @@
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="17" t="s">
         <v>113</v>
       </c>
@@ -4498,8 +4506,8 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="18"/>
       <c r="D41" s="17" t="s">
         <v>250</v>
@@ -4510,8 +4518,8 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="17" t="s">
         <v>215</v>
       </c>
@@ -4524,8 +4532,8 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
@@ -4538,8 +4546,8 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17" t="s">
         <v>251</v>
@@ -4550,8 +4558,8 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="17" t="s">
         <v>109</v>
       </c>
@@ -4560,8 +4568,8 @@
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="17" t="s">
         <v>114</v>
       </c>
@@ -4572,8 +4580,8 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="17" t="s">
         <v>114</v>
       </c>
@@ -4586,8 +4594,8 @@
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="17" t="s">
         <v>109</v>
       </c>
@@ -4600,10 +4608,10 @@
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="56" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -4618,8 +4626,8 @@
       <c r="F49" s="39"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="16" t="s">
         <v>107</v>
       </c>
@@ -4632,8 +4640,8 @@
       <c r="F50" s="39"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="38"/>
       <c r="D51" s="16" t="s">
         <v>250</v>
@@ -4644,8 +4652,8 @@
       <c r="F51" s="39"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="16" t="s">
         <v>215</v>
       </c>
@@ -4658,8 +4666,8 @@
       <c r="F52" s="39"/>
     </row>
     <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="16" t="s">
         <v>256</v>
       </c>
@@ -4672,8 +4680,8 @@
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="38"/>
       <c r="D54" s="16" t="s">
         <v>251</v>
@@ -4684,8 +4692,8 @@
       <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
@@ -4696,8 +4704,8 @@
       <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16" t="s">
         <v>253</v>
@@ -4708,8 +4716,8 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="16" t="s">
         <v>114</v>
       </c>
@@ -4722,8 +4730,8 @@
       <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
         <v>259</v>
@@ -4734,8 +4742,8 @@
       <c r="F58" s="39"/>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="16" t="s">
         <v>109</v>
       </c>
@@ -4748,10 +4756,10 @@
       <c r="F59" s="39"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C60" s="17" t="s">
@@ -4766,8 +4774,8 @@
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="17" t="s">
         <v>113</v>
       </c>
@@ -4780,8 +4788,8 @@
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17" t="s">
         <v>118</v>
@@ -4792,8 +4800,8 @@
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17" t="s">
         <v>261</v>
@@ -4804,8 +4812,8 @@
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="17" t="s">
         <v>215</v>
       </c>
@@ -4818,8 +4826,8 @@
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="48"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="17" t="s">
         <v>122</v>
       </c>
@@ -4832,8 +4840,8 @@
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17" t="s">
         <v>124</v>
@@ -4844,8 +4852,8 @@
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17" t="s">
         <v>262</v>
@@ -4856,8 +4864,8 @@
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="17" t="s">
         <v>263</v>
       </c>
@@ -4870,8 +4878,8 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="49"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="17" t="s">
         <v>264</v>
       </c>
@@ -4884,10 +4892,10 @@
       <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="55" t="s">
         <v>274</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -4902,8 +4910,8 @@
       <c r="F70" s="39"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="38" t="s">
         <v>107</v>
       </c>
@@ -4916,8 +4924,8 @@
       <c r="F71" s="39"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="39"/>
       <c r="D72" s="16" t="s">
         <v>118</v>
@@ -4928,8 +4936,8 @@
       <c r="F72" s="39"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="39"/>
       <c r="D73" s="16" t="s">
         <v>261</v>
@@ -4940,8 +4948,8 @@
       <c r="F73" s="39"/>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="39"/>
       <c r="D74" s="16" t="s">
         <v>269</v>
@@ -4952,8 +4960,8 @@
       <c r="F74" s="39"/>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="39"/>
       <c r="D75" s="16" t="s">
         <v>271</v>
@@ -4964,8 +4972,8 @@
       <c r="F75" s="39"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="39"/>
       <c r="D76" s="16" t="s">
         <v>272</v>
@@ -4976,10 +4984,10 @@
       <c r="F76" s="39"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="54" t="s">
         <v>276</v>
       </c>
       <c r="C77" s="17" t="s">
@@ -4994,8 +5002,8 @@
       <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
-      <c r="B78" s="53"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="18" t="s">
         <v>107</v>
       </c>
@@ -5008,8 +5016,8 @@
       <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="29"/>
       <c r="D79" s="17" t="s">
         <v>118</v>
@@ -5020,8 +5028,8 @@
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
-      <c r="B80" s="53"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="29"/>
       <c r="D80" s="17" t="s">
         <v>261</v>
@@ -5032,8 +5040,8 @@
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="29"/>
       <c r="D81" s="17" t="s">
         <v>269</v>
@@ -5044,8 +5052,8 @@
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="29"/>
       <c r="D82" s="17" t="s">
         <v>271</v>
@@ -5056,8 +5064,8 @@
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="29"/>
       <c r="D83" s="17" t="s">
         <v>272</v>
@@ -5068,10 +5076,10 @@
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="B84" s="54" t="s">
+      <c r="B84" s="55" t="s">
         <v>301</v>
       </c>
       <c r="C84" s="16" t="s">
@@ -5086,8 +5094,8 @@
       <c r="F84" s="39"/>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="54"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="39"/>
       <c r="D85" s="38" t="s">
         <v>304</v>
@@ -5098,8 +5106,8 @@
       <c r="F85" s="39"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="54"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="39"/>
       <c r="D86" s="38" t="s">
         <v>312</v>
@@ -5110,8 +5118,8 @@
       <c r="F86" s="39"/>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
-      <c r="B87" s="54"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="39"/>
       <c r="D87" s="38" t="s">
         <v>313</v>
@@ -5123,6 +5131,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A60:A69"/>
     <mergeCell ref="B60:B69"/>
@@ -5132,12 +5146,6 @@
     <mergeCell ref="B39:B48"/>
     <mergeCell ref="B49:B59"/>
     <mergeCell ref="A49:A59"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
